--- a/zzyTest/Orderrr.xlsx
+++ b/zzyTest/Orderrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59F20A-7D62-4F13-86C9-A18ECADFB932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22084743-A695-4FDC-8503-1E804BB59762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food11 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food10 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item2 10, item3 1, food1 10, food2 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,14 @@
   </si>
   <si>
     <t>1126 2, food2 1, food3 4, food4 2, food5 3, tools1 10, tools2 2, necessities1 3, item4 1, necessities2 4, item5 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food1 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>222001</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>44602</v>
@@ -669,7 +669,7 @@
         <v>222104</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>44972</v>
@@ -695,7 +695,7 @@
         <v>222103</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>44324</v>
@@ -721,7 +721,7 @@
         <v>222002</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>44609</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>222001</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>44988</v>
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>

--- a/zzyTest/Orderrr.xlsx
+++ b/zzyTest/Orderrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22084743-A695-4FDC-8503-1E804BB59762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6408E9-14F5-4452-9263-9BA0E686BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tool1 1</t>
+    <t>food5 28, necessities2 2, food2 1, food3 10, item4 5, item3 7, tools1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/zzyTest/Orderrr.xlsx
+++ b/zzyTest/Orderrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6408E9-14F5-4452-9263-9BA0E686BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53A17B-AF01-4A1D-A03C-3E8B57382DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>LastOrderNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,18 +138,6 @@
   </si>
   <si>
     <t>item2 10, item3 1, food1 10, food2 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MN123254C8548952(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1123 1, 1131 2, tools5 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Received</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,7 +527,7 @@
         <v>222001</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>44602</v>
@@ -669,7 +657,7 @@
         <v>222104</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>44972</v>
@@ -695,7 +683,7 @@
         <v>222103</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>44324</v>
@@ -740,30 +728,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>222001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44988</v>
-      </c>
-      <c r="E10">
-        <v>298732</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
